--- a/output_data/charts/shares-Perry.xlsx
+++ b/output_data/charts/shares-Perry.xlsx
@@ -16,40 +16,40 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
-    <t>Construction</t>
+    <t>Unclassified</t>
+  </si>
+  <si>
+    <t>Trade, transportation, and utilities</t>
+  </si>
+  <si>
+    <t>Public administration</t>
+  </si>
+  <si>
+    <t>Professional and business services</t>
+  </si>
+  <si>
+    <t>Other services</t>
+  </si>
+  <si>
+    <t>Natural resources and mining</t>
+  </si>
+  <si>
+    <t>Manufacturing</t>
+  </si>
+  <si>
+    <t>Leisure and hospitality</t>
+  </si>
+  <si>
+    <t>Information</t>
+  </si>
+  <si>
+    <t>Financial activities</t>
   </si>
   <si>
     <t>Education and health services</t>
   </si>
   <si>
-    <t>Financial activities</t>
-  </si>
-  <si>
-    <t>Information</t>
-  </si>
-  <si>
-    <t>Leisure and hospitality</t>
-  </si>
-  <si>
-    <t>Manufacturing</t>
-  </si>
-  <si>
-    <t>Natural resources and mining</t>
-  </si>
-  <si>
-    <t>Other services</t>
-  </si>
-  <si>
-    <t>Professional and business services</t>
-  </si>
-  <si>
-    <t>Public administration</t>
-  </si>
-  <si>
-    <t>Trade, transportation, and utilities</t>
-  </si>
-  <si>
-    <t>Unclassified</t>
+    <t>Construction</t>
   </si>
   <si>
     <t>Year</t>
@@ -169,14 +169,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Construction</c:v>
+                  <c:v>Unclassified</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="1F77B4"/>
+              <a:srgbClr val="68AFFC"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -213,19 +213,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>6.019325204752178</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.774561106003331</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.615252766925517</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.783144876195091</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.000162370708068</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.01624172242276424</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -240,14 +234,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Education and health services</c:v>
+                  <c:v>Trade, transportation, and utilities</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="FF7F0E"/>
+              <a:srgbClr val="4233A6"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -284,19 +278,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>29.09868526613094</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>29.04219276514628</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>31.36246786941985</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>30.83247690104561</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>28.87770016622935</c:v>
+                  <c:v>17.85205133093607</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.55466582834929</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.2347900617829</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.98561152560993</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.67792755408535</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -311,14 +305,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Financial activities</c:v>
+                  <c:v>Public administration</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="2CA02C"/>
+              <a:srgbClr val="85E5DD"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -355,19 +349,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.629494694707524</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.43301508849051</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.622107969410511</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.911956163139177</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.793568259314122</c:v>
+                  <c:v>6.09852683962175</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.759162339587732</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.13538987138543</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.1493662263752</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.707812266805961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -382,14 +376,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Information</c:v>
+                  <c:v>Professional and business services</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="D62728"/>
+              <a:srgbClr val="2A6866"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -426,19 +420,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.3484872800441909</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.1693871456624338</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.2056555412713724</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.1884206484251976</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.6821504423732827</c:v>
+                  <c:v>7.587517796861383</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.408684894836595</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.660668400961876</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.235011995544773</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.993178479554667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -453,14 +447,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Leisure and hospitality</c:v>
+                  <c:v>Other services</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="9467BD"/>
+              <a:srgbClr val="66DE78"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -497,19 +491,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>8.094408376741338</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.945796160316265</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.106255338863617</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10.27749230034853</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9.793730729989706</c:v>
+                  <c:v>2.233486457552776</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5254081120534</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.570694087657359</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.911956163139177</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.020951760921625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -524,14 +518,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Manufacturing</c:v>
+                  <c:v>Natural resources and mining</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="8C564B"/>
+              <a:srgbClr val="15974D"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -568,19 +562,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>15.04831301188045</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>15.19864488822872</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>13.88174807334977</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>13.60054814412789</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>14.60126684445454</c:v>
+                  <c:v>4.989703740771408</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.188481671325444</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.604970018971802</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.12401505604942</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.835309403140559</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -595,14 +589,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Natural resources and mining</c:v>
+                  <c:v>Manufacturing</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="E377C2"/>
+              <a:srgbClr val="B4D170"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -639,19 +633,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>4.989703740771408</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.188481671325444</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.604970018971802</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.12401505604942</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.835309403140559</c:v>
+                  <c:v>15.04831301188045</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.19864488822872</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.88174807334977</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.60054814412789</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.60126684445454</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -666,14 +660,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Other services</c:v>
+                  <c:v>Leisure and hospitality</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="7F7F7F"/>
+              <a:srgbClr val="683C00"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -710,19 +704,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.233486457552776</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.5254081120534</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.570694087657359</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.911956163139177</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.020951760921625</c:v>
+                  <c:v>8.094408376741338</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.945796160316265</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.106255338863617</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.27749230034853</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.793730729989706</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -737,14 +731,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Professional and business services</c:v>
+                  <c:v>Information</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="BCBD22"/>
+              <a:srgbClr val="CA7E54"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -781,19 +775,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>7.587517796861383</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.408684894836595</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.660668400961876</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.235011995544773</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.993178479554667</c:v>
+                  <c:v>0.3484872800441909</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1693871456624338</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2056555412713724</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1884206484251976</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.6821504423732827</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -808,14 +802,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Public administration</c:v>
+                  <c:v>Financial activities</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="17BECF"/>
+              <a:srgbClr val="821F48"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -852,19 +846,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>6.09852683962175</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.759162339587732</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.13538987138543</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.1493662263752</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.707812266805961</c:v>
+                  <c:v>2.629494694707524</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.43301508849051</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.622107969410511</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.911956163139177</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.793568259314122</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -879,14 +873,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Trade, transportation, and utilities</c:v>
+                  <c:v>Education and health services</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="8DD3C7"/>
+              <a:srgbClr val="F65B68"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -923,19 +917,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>17.85205133093607</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>17.55466582834929</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>18.2347900617829</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>17.98561152560993</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>18.67792755408535</c:v>
+                  <c:v>29.09868526613094</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29.04219276514628</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31.36246786941985</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30.83247690104561</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28.87770016622935</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -950,14 +944,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Unclassified</c:v>
+                  <c:v>Construction</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="FFFFB3"/>
+              <a:srgbClr val="EBCECB"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -994,13 +988,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.01624172242276424</c:v>
+                  <c:v>6.019325204752178</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.774561106003331</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.615252766925517</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.783144876195091</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.000162370708068</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1045,7 +1045,6 @@
           <c:min val="0"/>
         </c:scaling>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
         <c:title>
           <c:tx>
             <c:rich>
@@ -1117,15 +1116,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1439,19 +1438,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="30.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="30.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="30.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="30.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="30.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="30.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="30.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="30.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="13" width="30.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -1500,40 +1487,40 @@
         <v>2018</v>
       </c>
       <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>17.85205133093607</v>
+      </c>
+      <c r="D2" s="1">
+        <v>6.09852683962175</v>
+      </c>
+      <c r="E2" s="1">
+        <v>7.587517796861383</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2.233486457552776</v>
+      </c>
+      <c r="G2" s="1">
+        <v>4.989703740771408</v>
+      </c>
+      <c r="H2" s="1">
+        <v>15.04831301188045</v>
+      </c>
+      <c r="I2" s="1">
+        <v>8.094408376741338</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0.3484872800441909</v>
+      </c>
+      <c r="K2" s="1">
+        <v>2.629494694707524</v>
+      </c>
+      <c r="L2" s="1">
+        <v>29.09868526613094</v>
+      </c>
+      <c r="M2" s="1">
         <v>6.019325204752178</v>
-      </c>
-      <c r="C2" s="1">
-        <v>29.09868526613094</v>
-      </c>
-      <c r="D2" s="1">
-        <v>2.629494694707524</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0.3484872800441909</v>
-      </c>
-      <c r="F2" s="1">
-        <v>8.094408376741338</v>
-      </c>
-      <c r="G2" s="1">
-        <v>15.04831301188045</v>
-      </c>
-      <c r="H2" s="1">
-        <v>4.989703740771408</v>
-      </c>
-      <c r="I2" s="1">
-        <v>2.233486457552776</v>
-      </c>
-      <c r="J2" s="1">
-        <v>7.587517796861383</v>
-      </c>
-      <c r="K2" s="1">
-        <v>6.09852683962175</v>
-      </c>
-      <c r="L2" s="1">
-        <v>17.85205133093607</v>
-      </c>
-      <c r="M2" s="1">
-        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1541,116 +1528,116 @@
         <v>2019</v>
       </c>
       <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>17.55466582834929</v>
+      </c>
+      <c r="D3" s="1">
+        <v>5.759162339587732</v>
+      </c>
+      <c r="E3" s="1">
+        <v>9.408684894836595</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2.5254081120534</v>
+      </c>
+      <c r="G3" s="1">
+        <v>4.188481671325444</v>
+      </c>
+      <c r="H3" s="1">
+        <v>15.19864488822872</v>
+      </c>
+      <c r="I3" s="1">
+        <v>7.945796160316265</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0.1693871456624338</v>
+      </c>
+      <c r="K3" s="1">
+        <v>2.43301508849051</v>
+      </c>
+      <c r="L3" s="1">
+        <v>29.04219276514628</v>
+      </c>
+      <c r="M3" s="1">
         <v>5.774561106003331</v>
-      </c>
-      <c r="C3" s="1">
-        <v>29.04219276514628</v>
-      </c>
-      <c r="D3" s="1">
-        <v>2.43301508849051</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0.1693871456624338</v>
-      </c>
-      <c r="F3" s="1">
-        <v>7.945796160316265</v>
-      </c>
-      <c r="G3" s="1">
-        <v>15.19864488822872</v>
-      </c>
-      <c r="H3" s="1">
-        <v>4.188481671325444</v>
-      </c>
-      <c r="I3" s="1">
-        <v>2.5254081120534</v>
-      </c>
-      <c r="J3" s="1">
-        <v>9.408684894836595</v>
-      </c>
-      <c r="K3" s="1">
-        <v>5.759162339587732</v>
-      </c>
-      <c r="L3" s="1">
-        <v>17.55466582834929</v>
-      </c>
-      <c r="M3" s="1">
-        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="2">
         <v>2020</v>
       </c>
-      <c r="B4" s="1">
+      <c r="C4" s="1">
+        <v>18.2347900617829</v>
+      </c>
+      <c r="D4" s="1">
+        <v>6.13538987138543</v>
+      </c>
+      <c r="E4" s="1">
+        <v>7.660668400961876</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2.570694087657359</v>
+      </c>
+      <c r="G4" s="1">
+        <v>2.604970018971802</v>
+      </c>
+      <c r="H4" s="1">
+        <v>13.88174807334977</v>
+      </c>
+      <c r="I4" s="1">
+        <v>8.106255338863617</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0.2056555412713724</v>
+      </c>
+      <c r="K4" s="1">
+        <v>2.622107969410511</v>
+      </c>
+      <c r="L4" s="1">
+        <v>31.36246786941985</v>
+      </c>
+      <c r="M4" s="1">
         <v>6.615252766925517</v>
-      </c>
-      <c r="C4" s="1">
-        <v>31.36246786941985</v>
-      </c>
-      <c r="D4" s="1">
-        <v>2.622107969410511</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0.2056555412713724</v>
-      </c>
-      <c r="F4" s="1">
-        <v>8.106255338863617</v>
-      </c>
-      <c r="G4" s="1">
-        <v>13.88174807334977</v>
-      </c>
-      <c r="H4" s="1">
-        <v>2.604970018971802</v>
-      </c>
-      <c r="I4" s="1">
-        <v>2.570694087657359</v>
-      </c>
-      <c r="J4" s="1">
-        <v>7.660668400961876</v>
-      </c>
-      <c r="K4" s="1">
-        <v>6.13538987138543</v>
-      </c>
-      <c r="L4" s="1">
-        <v>18.2347900617829</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="2">
         <v>2021</v>
       </c>
-      <c r="B5" s="1">
+      <c r="C5" s="1">
+        <v>17.98561152560993</v>
+      </c>
+      <c r="D5" s="1">
+        <v>6.1493662263752</v>
+      </c>
+      <c r="E5" s="1">
+        <v>6.235011995544773</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2.911956163139177</v>
+      </c>
+      <c r="G5" s="1">
+        <v>2.12401505604942</v>
+      </c>
+      <c r="H5" s="1">
+        <v>13.60054814412789</v>
+      </c>
+      <c r="I5" s="1">
+        <v>10.27749230034853</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0.1884206484251976</v>
+      </c>
+      <c r="K5" s="1">
+        <v>2.911956163139177</v>
+      </c>
+      <c r="L5" s="1">
+        <v>30.83247690104561</v>
+      </c>
+      <c r="M5" s="1">
         <v>6.783144876195091</v>
-      </c>
-      <c r="C5" s="1">
-        <v>30.83247690104561</v>
-      </c>
-      <c r="D5" s="1">
-        <v>2.911956163139177</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0.1884206484251976</v>
-      </c>
-      <c r="F5" s="1">
-        <v>10.27749230034853</v>
-      </c>
-      <c r="G5" s="1">
-        <v>13.60054814412789</v>
-      </c>
-      <c r="H5" s="1">
-        <v>2.12401505604942</v>
-      </c>
-      <c r="I5" s="1">
-        <v>2.911956163139177</v>
-      </c>
-      <c r="J5" s="1">
-        <v>6.235011995544773</v>
-      </c>
-      <c r="K5" s="1">
-        <v>6.1493662263752</v>
-      </c>
-      <c r="L5" s="1">
-        <v>17.98561152560993</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -1658,40 +1645,40 @@
         <v>2022</v>
       </c>
       <c r="B6" s="1">
+        <v>0.01624172242276424</v>
+      </c>
+      <c r="C6" s="1">
+        <v>18.67792755408535</v>
+      </c>
+      <c r="D6" s="1">
+        <v>6.707812266805961</v>
+      </c>
+      <c r="E6" s="1">
+        <v>5.993178479554667</v>
+      </c>
+      <c r="F6" s="1">
+        <v>3.020951760921625</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1.835309403140559</v>
+      </c>
+      <c r="H6" s="1">
+        <v>14.60126684445454</v>
+      </c>
+      <c r="I6" s="1">
+        <v>9.793730729989706</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0.6821504423732827</v>
+      </c>
+      <c r="K6" s="1">
+        <v>2.793568259314122</v>
+      </c>
+      <c r="L6" s="1">
+        <v>28.87770016622935</v>
+      </c>
+      <c r="M6" s="1">
         <v>7.000162370708068</v>
-      </c>
-      <c r="C6" s="1">
-        <v>28.87770016622935</v>
-      </c>
-      <c r="D6" s="1">
-        <v>2.793568259314122</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0.6821504423732827</v>
-      </c>
-      <c r="F6" s="1">
-        <v>9.793730729989706</v>
-      </c>
-      <c r="G6" s="1">
-        <v>14.60126684445454</v>
-      </c>
-      <c r="H6" s="1">
-        <v>1.835309403140559</v>
-      </c>
-      <c r="I6" s="1">
-        <v>3.020951760921625</v>
-      </c>
-      <c r="J6" s="1">
-        <v>5.993178479554667</v>
-      </c>
-      <c r="K6" s="1">
-        <v>6.707812266805961</v>
-      </c>
-      <c r="L6" s="1">
-        <v>18.67792755408535</v>
-      </c>
-      <c r="M6" s="1">
-        <v>0.01624172242276424</v>
       </c>
     </row>
   </sheetData>
